--- a/data/trans_orig/Q4502_R-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/Q4502_R-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>333327</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>304635</v>
+        <v>304330</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>367846</v>
+        <v>362650</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.3237094206872501</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.29584585426747</v>
+        <v>0.2955491117202815</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3572333989744321</v>
+        <v>0.3521873579101513</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>353</v>
@@ -764,19 +764,19 @@
         <v>361724</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>332080</v>
+        <v>328484</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>395916</v>
+        <v>393213</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2752487350286028</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.252691549011753</v>
+        <v>0.2499550849468406</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3012661370068102</v>
+        <v>0.2992092941015532</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>689</v>
@@ -785,19 +785,19 @@
         <v>695051</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>652054</v>
+        <v>652201</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>742686</v>
+        <v>739168</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2965383762764874</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2781940541334594</v>
+        <v>0.2782568325053301</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3168614831818629</v>
+        <v>0.3153604882532215</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>193008</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>167779</v>
+        <v>167102</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>217511</v>
+        <v>218903</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1874391964056725</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1629379205603625</v>
+        <v>0.1622810228404406</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2112358541600913</v>
+        <v>0.2125869213877049</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>234</v>
@@ -835,19 +835,19 @@
         <v>238368</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>211987</v>
+        <v>210456</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>266937</v>
+        <v>266703</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1813821831745848</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1613079835579698</v>
+        <v>0.1601433573383509</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2031217622942459</v>
+        <v>0.2029435160961316</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>427</v>
@@ -856,19 +856,19 @@
         <v>431375</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>394127</v>
+        <v>392613</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>468253</v>
+        <v>469077</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1840431368315733</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1681515074333121</v>
+        <v>0.167505233024106</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1997765455232794</v>
+        <v>0.2001281070463927</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>230995</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>206543</v>
+        <v>206517</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>260268</v>
+        <v>262467</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2243299688433268</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2005842591708078</v>
+        <v>0.2005588513759652</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.252758433441618</v>
+        <v>0.254894537813033</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>298</v>
@@ -906,19 +906,19 @@
         <v>301221</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>271904</v>
+        <v>267991</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>331071</v>
+        <v>331239</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2292098909120792</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.206901426006153</v>
+        <v>0.2039236452523998</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.2519232800424487</v>
+        <v>0.2520516067924741</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>527</v>
@@ -927,19 +927,19 @@
         <v>532216</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>496000</v>
+        <v>493725</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>577954</v>
+        <v>573552</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2270660543412726</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.211614878153124</v>
+        <v>0.2106441809852197</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2465799727851267</v>
+        <v>0.2447017986527438</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>50765</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>39346</v>
+        <v>37589</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>67102</v>
+        <v>65826</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.04930052612011016</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.03821055393832771</v>
+        <v>0.03650464505605897</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.06516622341049294</v>
+        <v>0.06392681658950473</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>72</v>
@@ -977,19 +977,19 @@
         <v>72195</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>58248</v>
+        <v>58414</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>90348</v>
+        <v>89415</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.05493557917699854</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.04432286167035075</v>
+        <v>0.0444490780196525</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.0687489370876084</v>
+        <v>0.06803887512841579</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>122</v>
@@ -998,19 +998,19 @@
         <v>122960</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>102901</v>
+        <v>104216</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>146271</v>
+        <v>144872</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.052460000130532</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.04390188169094537</v>
+        <v>0.04446280210602681</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.06240546249156616</v>
+        <v>0.06180840530478338</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>221615</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>194365</v>
+        <v>196012</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>247781</v>
+        <v>247629</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2152208879436404</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.188757032217899</v>
+        <v>0.1903567901017964</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2406324807122787</v>
+        <v>0.2404845742640091</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>333</v>
@@ -1048,19 +1048,19 @@
         <v>340665</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>310391</v>
+        <v>307643</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>372651</v>
+        <v>372061</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2592236117077346</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2361872094762927</v>
+        <v>0.2340959906267976</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2835633096008848</v>
+        <v>0.2831140967726589</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>561</v>
@@ -1069,19 +1069,19 @@
         <v>562280</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>524808</v>
+        <v>523736</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>603397</v>
+        <v>601832</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2398924324201347</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2239054517738532</v>
+        <v>0.2234481855997758</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2574346923587025</v>
+        <v>0.256767204079178</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>282117</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>252223</v>
+        <v>253237</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>311613</v>
+        <v>315423</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.1666968250658884</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1490331796768166</v>
+        <v>0.1496324418455512</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.1841254605383577</v>
+        <v>0.1863767727384004</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>230</v>
@@ -1194,19 +1194,19 @@
         <v>233478</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>207434</v>
+        <v>204726</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>264254</v>
+        <v>262637</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.1474812802348969</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1310303171385272</v>
+        <v>0.1293195393487881</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.1669217095270361</v>
+        <v>0.165900430220138</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>506</v>
@@ -1215,19 +1215,19 @@
         <v>515595</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>473247</v>
+        <v>476989</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>560867</v>
+        <v>560881</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.1574096293055081</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.1444811016548262</v>
+        <v>0.1456233241838392</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.1712311601964965</v>
+        <v>0.1712353003083379</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>430125</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>393323</v>
+        <v>391672</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>465296</v>
+        <v>462527</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2541515469355879</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2324064185338979</v>
+        <v>0.2314304868720903</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2749334454895933</v>
+        <v>0.2732974873044557</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>266</v>
@@ -1265,19 +1265,19 @@
         <v>278680</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>247413</v>
+        <v>250316</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>308184</v>
+        <v>310164</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1760339321396933</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1562834675568043</v>
+        <v>0.1581173348473281</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1946706556530257</v>
+        <v>0.1959212663597158</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>688</v>
@@ -1286,19 +1286,19 @@
         <v>708804</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>657756</v>
+        <v>663756</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>754442</v>
+        <v>756693</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.21639599083117</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2008109837484681</v>
+        <v>0.2026427417503458</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.230328911930917</v>
+        <v>0.2310162675429072</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>554941</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>519666</v>
+        <v>518833</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>596123</v>
+        <v>600216</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3279027286669071</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.3070595665786104</v>
+        <v>0.3065675519640861</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3522364011832343</v>
+        <v>0.3546547847852731</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>518</v>
@@ -1336,19 +1336,19 @@
         <v>531631</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>493307</v>
+        <v>491001</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>571190</v>
+        <v>567899</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.335815726880325</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3116074769968478</v>
+        <v>0.3101511005877619</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3608040062307942</v>
+        <v>0.3587251981599276</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1054</v>
@@ -1357,19 +1357,19 @@
         <v>1086571</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1031868</v>
+        <v>1024497</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1140999</v>
+        <v>1136412</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3317272136922302</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3150265187415889</v>
+        <v>0.3127759659252241</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3483439290005609</v>
+        <v>0.3469432920575116</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>100126</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>81737</v>
+        <v>82647</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>120932</v>
+        <v>119437</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.05916260711700486</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.04829642108035333</v>
+        <v>0.0488342922966481</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.0714558997422426</v>
+        <v>0.07057287912944772</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>137</v>
@@ -1407,19 +1407,19 @@
         <v>138746</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>116909</v>
+        <v>117459</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>161067</v>
+        <v>161423</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08764188385826896</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.07384828827568726</v>
+        <v>0.07419550945616778</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.1017411121970946</v>
+        <v>0.1019663893671246</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>238</v>
@@ -1428,19 +1428,19 @@
         <v>238873</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>211655</v>
+        <v>211684</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>267339</v>
+        <v>272498</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.07292712019932891</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06461765747692584</v>
+        <v>0.06462644379291374</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.08161781502221148</v>
+        <v>0.08319299510635232</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>325086</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>293000</v>
+        <v>292821</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>359130</v>
+        <v>359434</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1920862922146117</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1731277844447069</v>
+        <v>0.1730217055587168</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2122021017456743</v>
+        <v>0.2123822330319549</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>399</v>
@@ -1478,19 +1478,19 @@
         <v>400568</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>367071</v>
+        <v>365248</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>435167</v>
+        <v>434019</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2530271768868158</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2318677974480808</v>
+        <v>0.230716345009891</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.274882450482384</v>
+        <v>0.2741572716775805</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>712</v>
@@ -1499,19 +1499,19 @@
         <v>725654</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>678795</v>
+        <v>679105</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>772964</v>
+        <v>771169</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2215400459717628</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2072343112829148</v>
+        <v>0.2073288612452575</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2359838390775172</v>
+        <v>0.2354355860509873</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>103925</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>87086</v>
+        <v>85571</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>125183</v>
+        <v>124214</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.1884717276082802</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.15793304855906</v>
+        <v>0.1551855528974554</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2270239518201345</v>
+        <v>0.2252666810703826</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>77</v>
@@ -1624,19 +1624,19 @@
         <v>84372</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>67337</v>
+        <v>68345</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>103048</v>
+        <v>105131</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.1770997574341841</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1413424362229743</v>
+        <v>0.1434583863369326</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2163005935873301</v>
+        <v>0.2206728688125604</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>173</v>
@@ -1645,19 +1645,19 @@
         <v>188297</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>164010</v>
+        <v>163495</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>215441</v>
+        <v>216395</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.1832006284109322</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.1595703121807877</v>
+        <v>0.1590696851361577</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2096092328112169</v>
+        <v>0.2105378110886458</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>127889</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>108861</v>
+        <v>109987</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>151243</v>
+        <v>151138</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2319325080095264</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1974228847024657</v>
+        <v>0.1994664205128228</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2742842188583798</v>
+        <v>0.2740951049067673</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>91</v>
@@ -1695,19 +1695,19 @@
         <v>96555</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>79432</v>
+        <v>79117</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>116453</v>
+        <v>115296</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2026708225304913</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1667291792728464</v>
+        <v>0.1660677046115673</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2444369827906969</v>
+        <v>0.242010017019902</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>214</v>
@@ -1716,19 +1716,19 @@
         <v>224444</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>196761</v>
+        <v>198490</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>249595</v>
+        <v>251197</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.218369225264296</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1914350630954912</v>
+        <v>0.1931179573864961</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2428393306044306</v>
+        <v>0.2443983192957035</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>181303</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>160179</v>
+        <v>161020</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>206049</v>
+        <v>203482</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3287998903814445</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2904907815773263</v>
+        <v>0.2920164049547135</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3736778556702537</v>
+        <v>0.3690223733025798</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>152</v>
@@ -1766,19 +1766,19 @@
         <v>158654</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>138417</v>
+        <v>137268</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>180294</v>
+        <v>181186</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.3330192267209141</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2905398551013901</v>
+        <v>0.2881296006395231</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3784419450663774</v>
+        <v>0.3803138498233125</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>330</v>
@@ -1787,19 +1787,19 @@
         <v>339957</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>309194</v>
+        <v>311616</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>370543</v>
+        <v>372380</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3307556236494564</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.3008252510235865</v>
+        <v>0.3031813757495369</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3605136356530848</v>
+        <v>0.3623004081164627</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>44939</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>33052</v>
+        <v>32683</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>60889</v>
+        <v>60414</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.08149926045477855</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.05994096432381888</v>
+        <v>0.05927230092839182</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.1104253965292051</v>
+        <v>0.1095625674900542</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>44</v>
@@ -1837,19 +1837,19 @@
         <v>46445</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>35335</v>
+        <v>35585</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>60522</v>
+        <v>60530</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.09748987769102184</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.0741695284330787</v>
+        <v>0.07469468901369909</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1270381040249997</v>
+        <v>0.1270535290487854</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>86</v>
@@ -1858,19 +1858,19 @@
         <v>91385</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>74994</v>
+        <v>73766</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>112472</v>
+        <v>111997</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.08891118014755606</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.0729638065645113</v>
+        <v>0.07176891690822683</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.1094281777018569</v>
+        <v>0.1089654470118848</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>93352</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>75980</v>
+        <v>76198</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>114325</v>
+        <v>113527</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1692966135459703</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1377926852794801</v>
+        <v>0.1381881405573122</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2073326480856157</v>
+        <v>0.2058864807188029</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>88</v>
@@ -1908,19 +1908,19 @@
         <v>90385</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>74929</v>
+        <v>73944</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>109663</v>
+        <v>109284</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1897203156233887</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1572783855215132</v>
+        <v>0.1552096349812832</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.230186123568567</v>
+        <v>0.2293892360757306</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>176</v>
@@ -1929,19 +1929,19 @@
         <v>183737</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>159639</v>
+        <v>158320</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>209557</v>
+        <v>207883</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1787633425277593</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1553181288382933</v>
+        <v>0.1540350908315925</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2038847083495813</v>
+        <v>0.2022562854190951</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>719368</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>670302</v>
+        <v>672112</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>768319</v>
+        <v>766449</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2197542703176497</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2047653240257098</v>
+        <v>0.205318285329975</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.2347079855686769</v>
+        <v>0.2341366698258588</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>660</v>
@@ -2054,19 +2054,19 @@
         <v>679575</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>638709</v>
+        <v>631871</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>735157</v>
+        <v>728040</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2014338547165477</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.1893205713201033</v>
+        <v>0.1872939740004</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2179089189347768</v>
+        <v>0.2157993503639103</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1368</v>
@@ -2075,19 +2075,19 @@
         <v>1398943</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1334147</v>
+        <v>1331336</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1463410</v>
+        <v>1468254</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2104560143211065</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2007081434571537</v>
+        <v>0.2002853211656812</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2201543368124636</v>
+        <v>0.2208831620302016</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>751022</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>702552</v>
+        <v>710045</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>796765</v>
+        <v>804203</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2294239506559946</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2146171191945775</v>
+        <v>0.2169062772625466</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2433977888852922</v>
+        <v>0.2456699049846511</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>591</v>
@@ -2125,19 +2125,19 @@
         <v>613602</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>571073</v>
+        <v>572127</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>655549</v>
+        <v>660790</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1818787684894895</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1692727376425231</v>
+        <v>0.1695848996403672</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1943124141285025</v>
+        <v>0.1958656780986146</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1329</v>
@@ -2146,19 +2146,19 @@
         <v>1364624</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1301895</v>
+        <v>1294819</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1433113</v>
+        <v>1428991</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.2052930965961199</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1958562060756484</v>
+        <v>0.1947917436893</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2155965520439093</v>
+        <v>0.2149764668536517</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>967238</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>919876</v>
+        <v>917082</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1025439</v>
+        <v>1024005</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2954742144471698</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2810057781252002</v>
+        <v>0.2801524624271582</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.3132534325914625</v>
+        <v>0.3128155012644703</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>968</v>
@@ -2196,19 +2196,19 @@
         <v>991507</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>939441</v>
+        <v>945163</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>1041802</v>
+        <v>1045954</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2938940028381642</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.2784612832510341</v>
+        <v>0.2801572838130407</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.3088020044061979</v>
+        <v>0.3100328977766597</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1911</v>
@@ -2217,19 +2217,19 @@
         <v>1958745</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1880586</v>
+        <v>1886068</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>2030372</v>
+        <v>2029398</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2946722014148694</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2829139981476082</v>
+        <v>0.283738750394445</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.3054477014097673</v>
+        <v>0.3053012090264733</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>195831</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>166972</v>
+        <v>170789</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>223070</v>
+        <v>225640</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.05982291734037309</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.0510069865144559</v>
+        <v>0.05217305116039907</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06814396566331163</v>
+        <v>0.06892894309014123</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>253</v>
@@ -2267,19 +2267,19 @@
         <v>257386</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>231005</v>
+        <v>225513</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>288128</v>
+        <v>288241</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.07629227196449773</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.0684726843635946</v>
+        <v>0.06684453320307548</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0854043268350012</v>
+        <v>0.08543785459948119</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>446</v>
@@ -2288,19 +2288,19 @@
         <v>453217</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>413624</v>
+        <v>415315</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>499962</v>
+        <v>496326</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06818169471351038</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.06222529200649195</v>
+        <v>0.06247964230182626</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.07521393723880038</v>
+        <v>0.07466701034166116</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>640052</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>595331</v>
+        <v>594006</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>685331</v>
+        <v>685870</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1955246472388129</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1818630841785074</v>
+        <v>0.1814583349538244</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2093564363390945</v>
+        <v>0.209521303226208</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>820</v>
@@ -2338,19 +2338,19 @@
         <v>831618</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>783170</v>
+        <v>780854</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>883761</v>
+        <v>880166</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2465011019913009</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2321406868616072</v>
+        <v>0.2314542354595665</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2619569719341148</v>
+        <v>0.2608912520710112</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1449</v>
@@ -2359,19 +2359,19 @@
         <v>1471670</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1403827</v>
+        <v>1407633</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1544109</v>
+        <v>1536934</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2213969929543938</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2111908007555417</v>
+        <v>0.2117633837608131</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2322947343075368</v>
+        <v>0.2312153192706884</v>
       </c>
     </row>
     <row r="27">
@@ -2702,19 +2702,19 @@
         <v>490222</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>455510</v>
+        <v>459329</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>521006</v>
+        <v>521201</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5034746765454576</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4678235793387406</v>
+        <v>0.4717461475439869</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5350905113915517</v>
+        <v>0.5352909041931121</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>633</v>
@@ -2723,19 +2723,19 @@
         <v>675901</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>639581</v>
+        <v>636258</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>717227</v>
+        <v>712627</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5056815473277612</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.4785086759464969</v>
+        <v>0.476021883117567</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5365997288582239</v>
+        <v>0.5331586011700202</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>1092</v>
@@ -2744,19 +2744,19 @@
         <v>1166123</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1120149</v>
+        <v>1118477</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>1212329</v>
+        <v>1214651</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.5047514565412392</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4848517449739552</v>
+        <v>0.4841279884011888</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5247515245473918</v>
+        <v>0.5257567463465437</v>
       </c>
     </row>
     <row r="5">
@@ -2773,19 +2773,19 @@
         <v>159306</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>135574</v>
+        <v>135534</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>186389</v>
+        <v>183888</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1636126364404213</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1392394368490149</v>
+        <v>0.1391977753119813</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1914275696612071</v>
+        <v>0.1888587795697194</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>177</v>
@@ -2794,19 +2794,19 @@
         <v>186317</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>161767</v>
+        <v>163139</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>213425</v>
+        <v>214777</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1393945869971917</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1210271044144874</v>
+        <v>0.1220537007871236</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1596755639865213</v>
+        <v>0.1606877166739853</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>322</v>
@@ -2815,19 +2815,19 @@
         <v>345623</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>312267</v>
+        <v>313693</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>380040</v>
+        <v>383997</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1496013398507365</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1351634659658052</v>
+        <v>0.1357806271292196</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.164498578315015</v>
+        <v>0.1662116581690192</v>
       </c>
     </row>
     <row r="6">
@@ -2844,19 +2844,19 @@
         <v>98055</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>80824</v>
+        <v>80091</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>119789</v>
+        <v>118543</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1007055529371371</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.08300929357506028</v>
+        <v>0.08225589845044745</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1230274940782662</v>
+        <v>0.121748089435111</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>121</v>
@@ -2865,19 +2865,19 @@
         <v>131199</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>109302</v>
+        <v>110616</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>154321</v>
+        <v>156398</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.09815775870055508</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.08177495825908974</v>
+        <v>0.0827586822289081</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1154567523575544</v>
+        <v>0.1170104011318865</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>214</v>
@@ -2886,19 +2886,19 @@
         <v>229254</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>204571</v>
+        <v>204149</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>261095</v>
+        <v>260621</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.09923153246402176</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.08854751607170176</v>
+        <v>0.08836499148888731</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1130139740543984</v>
+        <v>0.1128089439643429</v>
       </c>
     </row>
     <row r="7">
@@ -2915,19 +2915,19 @@
         <v>36079</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>24646</v>
+        <v>25804</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>51893</v>
+        <v>53074</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0370538765186777</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02531180819758613</v>
+        <v>0.02650201286548875</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.0532955858139809</v>
+        <v>0.05450835072535045</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>42</v>
@@ -2936,19 +2936,19 @@
         <v>45165</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>32950</v>
+        <v>32893</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>59455</v>
+        <v>61562</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.0337903525443732</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02465168472999991</v>
+        <v>0.02460932059449241</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.04448210249886874</v>
+        <v>0.04605833824746288</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>74</v>
@@ -2957,19 +2957,19 @@
         <v>81243</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>65084</v>
+        <v>64262</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>102968</v>
+        <v>99700</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03516577225831124</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.0281713253753379</v>
+        <v>0.02781541808227482</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04456912013382508</v>
+        <v>0.04315472271360095</v>
       </c>
     </row>
     <row r="8">
@@ -2986,19 +2986,19 @@
         <v>190016</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>166082</v>
+        <v>165905</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>218822</v>
+        <v>215080</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1951532575583063</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1705722520162762</v>
+        <v>0.1703902387487412</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2247371383989501</v>
+        <v>0.2208943795175136</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>273</v>
@@ -3007,19 +3007,19 @@
         <v>298033</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>267856</v>
+        <v>267482</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>327063</v>
+        <v>329509</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2229757544301188</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2003988462609606</v>
+        <v>0.2001189356964855</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2446953381441384</v>
+        <v>0.2465252221539656</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>451</v>
@@ -3028,19 +3028,19 @@
         <v>488049</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>446022</v>
+        <v>443885</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>526485</v>
+        <v>527384</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2112498988856913</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1930589696884619</v>
+        <v>0.1921338589290226</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2278867859846971</v>
+        <v>0.2282758495521103</v>
       </c>
     </row>
     <row r="9">
@@ -3132,19 +3132,19 @@
         <v>700774</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>655465</v>
+        <v>661750</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>743202</v>
+        <v>743172</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3573292563763999</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3342261259044439</v>
+        <v>0.3374306287238896</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.378963514342931</v>
+        <v>0.378948290383133</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>509</v>
@@ -3153,19 +3153,19 @@
         <v>541684</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>503795</v>
+        <v>498744</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>584955</v>
+        <v>580407</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3090844660718186</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.287464571924867</v>
+        <v>0.2845825906645721</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3337747387009415</v>
+        <v>0.331179684400847</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>1163</v>
@@ -3174,19 +3174,19 @@
         <v>1242459</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1184249</v>
+        <v>1182238</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>1298387</v>
+        <v>1301851</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3345618149463814</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3188875185111724</v>
+        <v>0.3183459576274039</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3496217666118001</v>
+        <v>0.3505545324159677</v>
       </c>
     </row>
     <row r="11">
@@ -3203,19 +3203,19 @@
         <v>461108</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>425720</v>
+        <v>423256</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>503170</v>
+        <v>499944</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.2351220711252225</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2170776039703787</v>
+        <v>0.2158211380567726</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.2565695303303931</v>
+        <v>0.2549250321217311</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>339</v>
@@ -3224,19 +3224,19 @@
         <v>361719</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>327893</v>
+        <v>327881</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>396997</v>
+        <v>397856</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.2063963806409288</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.1870954959332045</v>
+        <v>0.1870887350965758</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.2265261676956221</v>
+        <v>0.2270163505685643</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>779</v>
@@ -3245,19 +3245,19 @@
         <v>822827</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>773567</v>
+        <v>770270</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>877061</v>
+        <v>878938</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.221565986177831</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2083016189260711</v>
+        <v>0.2074138224445338</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.2361697740995765</v>
+        <v>0.2366750976799146</v>
       </c>
     </row>
     <row r="12">
@@ -3274,19 +3274,19 @@
         <v>378852</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>341837</v>
+        <v>342877</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>415177</v>
+        <v>416141</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1931793546433549</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.174304906882116</v>
+        <v>0.1748355287649811</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2117013147844181</v>
+        <v>0.2121933254337749</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>320</v>
@@ -3295,19 +3295,19 @@
         <v>342938</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>309778</v>
+        <v>311505</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>380279</v>
+        <v>380271</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1956800332839089</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1767588486800713</v>
+        <v>0.1777444898440414</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2169869128214232</v>
+        <v>0.2169820897354504</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>682</v>
@@ -3316,19 +3316,19 @@
         <v>721791</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>674053</v>
+        <v>675926</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>769791</v>
+        <v>772520</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1943594624669079</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1815050444201483</v>
+        <v>0.182009188396201</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2072845916667924</v>
+        <v>0.2080195769342194</v>
       </c>
     </row>
     <row r="13">
@@ -3345,19 +3345,19 @@
         <v>92565</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>75706</v>
+        <v>75399</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>113974</v>
+        <v>113494</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.04719972537297198</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.03860323545469712</v>
+        <v>0.03844629758311057</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.05811604408773653</v>
+        <v>0.05787117943300167</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>134</v>
@@ -3366,19 +3366,19 @@
         <v>145624</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>120660</v>
+        <v>121289</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>170528</v>
+        <v>171511</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.08309283054380917</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06884869291682832</v>
+        <v>0.06920753603041203</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.09730316484855336</v>
+        <v>0.09786392773798346</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>224</v>
@@ -3387,19 +3387,19 @@
         <v>238189</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>207722</v>
+        <v>209082</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>273598</v>
+        <v>272033</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06413822100243535</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.05593419902176857</v>
+        <v>0.05630025578998636</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.0736728146254188</v>
+        <v>0.07325144285642422</v>
       </c>
     </row>
     <row r="14">
@@ -3416,19 +3416,19 @@
         <v>327843</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>293930</v>
+        <v>293774</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>362373</v>
+        <v>361193</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1671695924820507</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.149876939305137</v>
+        <v>0.1497974440097431</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.184776582308115</v>
+        <v>0.1841747971212197</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>328</v>
@@ -3437,19 +3437,19 @@
         <v>360580</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>324566</v>
+        <v>322590</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>395936</v>
+        <v>396787</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2057462894595345</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1851971515402638</v>
+        <v>0.1840693371839226</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2259203081029642</v>
+        <v>0.2264064223388891</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>635</v>
@@ -3458,19 +3458,19 @@
         <v>688423</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>644306</v>
+        <v>642146</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>745155</v>
+        <v>741811</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1853745154064443</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1734948663783694</v>
+        <v>0.1729131692852341</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2006508454610932</v>
+        <v>0.1997503682964869</v>
       </c>
     </row>
     <row r="15">
@@ -3562,19 +3562,19 @@
         <v>159569</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>138359</v>
+        <v>137658</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>182409</v>
+        <v>181025</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3316195417680941</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2875407167786185</v>
+        <v>0.2860834374489808</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.3790856782216172</v>
+        <v>0.3762104712982751</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>144</v>
@@ -3583,19 +3583,19 @@
         <v>158185</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>137576</v>
+        <v>138158</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>179685</v>
+        <v>180397</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3477696766891165</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3024616525615569</v>
+        <v>0.3037399425220811</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.3950380665311781</v>
+        <v>0.3966028199820899</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>289</v>
@@ -3604,19 +3604,19 @@
         <v>317754</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>286996</v>
+        <v>288795</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>348915</v>
+        <v>349093</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3394674970053297</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3066080243326932</v>
+        <v>0.3085294428827444</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.3727581386063614</v>
+        <v>0.3729476929903298</v>
       </c>
     </row>
     <row r="17">
@@ -3633,19 +3633,19 @@
         <v>119250</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>99530</v>
+        <v>99888</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>141421</v>
+        <v>141012</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2478267964897473</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2068462477111921</v>
+        <v>0.2075897850908972</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.293904915089657</v>
+        <v>0.2930539395791203</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>79</v>
@@ -3654,19 +3654,19 @@
         <v>91962</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>75418</v>
+        <v>75318</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>110552</v>
+        <v>111555</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2021788748213003</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.165807368798605</v>
+        <v>0.1655864666391733</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.243047903420926</v>
+        <v>0.2452530752529922</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>186</v>
@@ -3675,19 +3675,19 @@
         <v>211212</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>186397</v>
+        <v>186518</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>243554</v>
+        <v>238852</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2256447622418173</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1991337738542574</v>
+        <v>0.199263755576752</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2601970715340197</v>
+        <v>0.2551735068995062</v>
       </c>
     </row>
     <row r="18">
@@ -3704,19 +3704,19 @@
         <v>111554</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>93738</v>
+        <v>93236</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>132361</v>
+        <v>132091</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2318335879170494</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1948092192503938</v>
+        <v>0.1937657275452655</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2750748792179641</v>
+        <v>0.2745148610406944</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>91</v>
@@ -3725,19 +3725,19 @@
         <v>101898</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>83247</v>
+        <v>85128</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>121711</v>
+        <v>122238</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2240239986817515</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1830179597763147</v>
+        <v>0.1871546405469692</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.267582340519967</v>
+        <v>0.2687411224715978</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>194</v>
@@ -3746,19 +3746,19 @@
         <v>213453</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>187017</v>
+        <v>188194</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>240133</v>
+        <v>239453</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2280386161078644</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1997967268035035</v>
+        <v>0.2010542224995283</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.256542247139731</v>
+        <v>0.2558156141407574</v>
       </c>
     </row>
     <row r="19">
@@ -3775,19 +3775,19 @@
         <v>26099</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>17989</v>
+        <v>18058</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>38341</v>
+        <v>37984</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05423851341310094</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.03738561774244507</v>
+        <v>0.03752757320769051</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.07968075234174116</v>
+        <v>0.07893833320588847</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>36</v>
@@ -3796,19 +3796,19 @@
         <v>37399</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>26050</v>
+        <v>27277</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>51259</v>
+        <v>50880</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.08222183821980912</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05727098048556577</v>
+        <v>0.05996832523996884</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1126932573851237</v>
+        <v>0.1118597188202543</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>61</v>
@@ -3817,19 +3817,19 @@
         <v>63498</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>48563</v>
+        <v>48784</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>81023</v>
+        <v>80581</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06783665866365268</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05188195489780732</v>
+        <v>0.05211794199179415</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08655921152647271</v>
+        <v>0.08608781778914611</v>
       </c>
     </row>
     <row r="20">
@@ -3846,19 +3846,19 @@
         <v>64710</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>49581</v>
+        <v>49582</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>82395</v>
+        <v>81486</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1344815604120082</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.1030410037393653</v>
+        <v>0.1030417520878138</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1712355502897501</v>
+        <v>0.1693449604547544</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>60</v>
@@ -3867,19 +3867,19 @@
         <v>65411</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>50827</v>
+        <v>52258</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>82779</v>
+        <v>82945</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.1438056115880226</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1117437109154934</v>
+        <v>0.1148895668279952</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.1819909117805477</v>
+        <v>0.1823557480338833</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>118</v>
@@ -3888,19 +3888,19 @@
         <v>130121</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>110058</v>
+        <v>109972</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>155789</v>
+        <v>155589</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.139012465981336</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1175784295803953</v>
+        <v>0.1174870708520201</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1664343341924174</v>
+        <v>0.1662209403672945</v>
       </c>
     </row>
     <row r="21">
@@ -3992,19 +3992,19 @@
         <v>1350565</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>1288692</v>
+        <v>1296271</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>1403623</v>
+        <v>1409932</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.3953642114125175</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3772514172098224</v>
+        <v>0.3794703118407349</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4108965076611313</v>
+        <v>0.4127434451886064</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>1286</v>
@@ -4013,19 +4013,19 @@
         <v>1375770</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1311227</v>
+        <v>1314037</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>1436023</v>
+        <v>1436376</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.3881954675099522</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.3699835692325379</v>
+        <v>0.3707763290191876</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.4051966849320063</v>
+        <v>0.4052964901883734</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>2544</v>
@@ -4034,19 +4034,19 @@
         <v>2726335</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>2645164</v>
+        <v>2644143</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>2811407</v>
+        <v>2816831</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.3917139138186282</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3800513222895688</v>
+        <v>0.3799046850186427</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4039367397226118</v>
+        <v>0.4047161419657571</v>
       </c>
     </row>
     <row r="23">
@@ -4063,19 +4063,19 @@
         <v>739664</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>687654</v>
+        <v>692270</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>788904</v>
+        <v>789317</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.2165290329108452</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.2013036045922906</v>
+        <v>0.2026550180980703</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.2309436512011165</v>
+        <v>0.2310646442204485</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>595</v>
@@ -4084,19 +4084,19 @@
         <v>639998</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>592785</v>
+        <v>596010</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>685653</v>
+        <v>687094</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1805855737168745</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1672638387836827</v>
+        <v>0.1681736450940207</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1934679857472943</v>
+        <v>0.1938744075782871</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1287</v>
@@ -4105,19 +4105,19 @@
         <v>1379662</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>1314794</v>
+        <v>1315249</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>1453604</v>
+        <v>1453502</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1982267578686497</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1889066849496182</v>
+        <v>0.1889721241764595</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.2088506111514969</v>
+        <v>0.2088359833243502</v>
       </c>
     </row>
     <row r="24">
@@ -4134,19 +4134,19 @@
         <v>588461</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>542560</v>
+        <v>544875</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>637933</v>
+        <v>638270</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.1722660269293416</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.158829080118378</v>
+        <v>0.1595065669349878</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.1867485139888153</v>
+        <v>0.1868472160915089</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>532</v>
@@ -4155,19 +4155,19 @@
         <v>576036</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>533679</v>
+        <v>531380</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>628986</v>
+        <v>621541</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1625376149190433</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1505860377578968</v>
+        <v>0.1499373406541104</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.1774784935304798</v>
+        <v>0.1753778105239736</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1090</v>
@@ -4176,19 +4176,19 @@
         <v>1164497</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1102403</v>
+        <v>1095544</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1231247</v>
+        <v>1228109</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.1673123559046522</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1583908995411303</v>
+        <v>0.1574053408759484</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.17690283561243</v>
+        <v>0.1764520567046975</v>
       </c>
     </row>
     <row r="25">
@@ -4205,19 +4205,19 @@
         <v>154743</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>133547</v>
+        <v>130322</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>183652</v>
+        <v>179541</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.04529930152508106</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.03909448033934755</v>
+        <v>0.03815052391203066</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.05376226000072065</v>
+        <v>0.05255873623672867</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>212</v>
@@ -4226,19 +4226,19 @@
         <v>228188</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>198550</v>
+        <v>198572</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>259627</v>
+        <v>261515</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06438677111919963</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05602401302209239</v>
+        <v>0.05603021774726123</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.0732578093286467</v>
+        <v>0.07379052597597736</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>359</v>
@@ -4247,19 +4247,19 @@
         <v>382930</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>343536</v>
+        <v>349091</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>418565</v>
+        <v>420627</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.05501856968137757</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.04935845500617581</v>
+        <v>0.05015657600238772</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06013843074164454</v>
+        <v>0.06043478736653585</v>
       </c>
     </row>
     <row r="26">
@@ -4276,19 +4276,19 @@
         <v>582570</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>542297</v>
+        <v>537710</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>632174</v>
+        <v>636077</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1705414272222146</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1587518226876297</v>
+        <v>0.1574090210228803</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1850625130142143</v>
+        <v>0.1862051405838967</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>661</v>
@@ -4297,19 +4297,19 @@
         <v>724023</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>673404</v>
+        <v>676216</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>776876</v>
+        <v>778454</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2042945727349304</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1900116685186964</v>
+        <v>0.1908052406572927</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2192080088416941</v>
+        <v>0.2196531385644589</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1204</v>
@@ -4318,19 +4318,19 @@
         <v>1306593</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1237499</v>
+        <v>1239682</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1376576</v>
+        <v>1370698</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1877284027266924</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.1778011955281784</v>
+        <v>0.1781147840894671</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.197783366867761</v>
+        <v>0.1969389511439178</v>
       </c>
     </row>
     <row r="27">
@@ -4661,19 +4661,19 @@
         <v>218232</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>191660</v>
+        <v>193995</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>243075</v>
+        <v>240807</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.2900832108822563</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2547624911786187</v>
+        <v>0.2578671907891565</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.3231055209079831</v>
+        <v>0.3200909593312815</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>260</v>
@@ -4682,19 +4682,19 @@
         <v>292903</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>263871</v>
+        <v>261846</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>325329</v>
+        <v>325629</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2951911295989206</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2659331103307442</v>
+        <v>0.2638916270750473</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3278707378786096</v>
+        <v>0.3281728579444952</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>482</v>
@@ -4703,19 +4703,19 @@
         <v>511134</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>474436</v>
+        <v>471938</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>550007</v>
+        <v>550452</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2929884330783261</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2719524477419821</v>
+        <v>0.2705206894654354</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3152706279536489</v>
+        <v>0.3155254589105477</v>
       </c>
     </row>
     <row r="5">
@@ -4732,19 +4732,19 @@
         <v>249033</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>222677</v>
+        <v>223987</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>276450</v>
+        <v>273084</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.3310263432113921</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2959918042390701</v>
+        <v>0.297734028362975</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3674696350742025</v>
+        <v>0.3629953712776574</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>257</v>
@@ -4753,19 +4753,19 @@
         <v>284280</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>250104</v>
+        <v>254537</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>314960</v>
+        <v>314859</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2865009115791776</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.2520578608126027</v>
+        <v>0.2565260417610407</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3174212699355994</v>
+        <v>0.3173189375895349</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>509</v>
@@ -4774,19 +4774,19 @@
         <v>533313</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>497263</v>
+        <v>499473</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>573902</v>
+        <v>571392</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.3057016895818266</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2850371390041236</v>
+        <v>0.286304052242759</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3289676040851173</v>
+        <v>0.3275290810582501</v>
       </c>
     </row>
     <row r="6">
@@ -4803,19 +4803,19 @@
         <v>121351</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>101177</v>
+        <v>103463</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>142656</v>
+        <v>144211</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1613050036684129</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1344889989280276</v>
+        <v>0.1375281793311852</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.1896252526249864</v>
+        <v>0.1916913301567504</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>130</v>
@@ -4824,19 +4824,19 @@
         <v>137049</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>115014</v>
+        <v>115800</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>158164</v>
+        <v>160131</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.138119449414993</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1159121782296697</v>
+        <v>0.1167045562815832</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1593996554973447</v>
+        <v>0.1613818050464421</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>250</v>
@@ -4845,19 +4845,19 @@
         <v>258400</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>230124</v>
+        <v>230777</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>289643</v>
+        <v>290286</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1481177956133081</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1319096172045749</v>
+        <v>0.1322839635587426</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1660270701624491</v>
+        <v>0.1663955401563908</v>
       </c>
     </row>
     <row r="7">
@@ -4874,19 +4874,19 @@
         <v>25792</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>17494</v>
+        <v>16539</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>37827</v>
+        <v>37414</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.03428342886145602</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.02325320896797142</v>
+        <v>0.02198438568777016</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05028191088275817</v>
+        <v>0.04973243663688469</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>35</v>
@@ -4895,19 +4895,19 @@
         <v>39017</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>28048</v>
+        <v>27824</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>54538</v>
+        <v>52470</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.03932214057947585</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.02826753325260549</v>
+        <v>0.02804090890245751</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.05496429504770786</v>
+        <v>0.05287974999651225</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>61</v>
@@ -4916,19 +4916,19 @@
         <v>64809</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>49925</v>
+        <v>49549</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>82771</v>
+        <v>83421</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.03714928831122187</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.02861760610470567</v>
+        <v>0.02840181486208066</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04744559948577604</v>
+        <v>0.04781769981503009</v>
       </c>
     </row>
     <row r="8">
@@ -4945,19 +4945,19 @@
         <v>137899</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>115812</v>
+        <v>117427</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>158289</v>
+        <v>162424</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.1833020133764826</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.1539418581804777</v>
+        <v>0.1560888166058716</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2104053474523666</v>
+        <v>0.2159016144999569</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>208</v>
@@ -4966,19 +4966,19 @@
         <v>238999</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>209486</v>
+        <v>211375</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>268004</v>
+        <v>267547</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.2408663688274329</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2111232855579419</v>
+        <v>0.2130270648774884</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.2700982362298198</v>
+        <v>0.2696373237745326</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>348</v>
@@ -4987,19 +4987,19 @@
         <v>376899</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>345498</v>
+        <v>339286</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>412670</v>
+        <v>410346</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.2160427934153174</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.1980436224094708</v>
+        <v>0.1944829940638555</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.2365474499081737</v>
+        <v>0.2352153776592509</v>
       </c>
     </row>
     <row r="9">
@@ -5091,19 +5091,19 @@
         <v>477625</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>439474</v>
+        <v>434262</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>518699</v>
+        <v>514750</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2309414326964594</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2124948947773874</v>
+        <v>0.2099748740832068</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2508018532292368</v>
+        <v>0.2488921094695928</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>398</v>
@@ -5112,19 +5112,19 @@
         <v>418271</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>378749</v>
+        <v>382602</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>453265</v>
+        <v>456894</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2114385318890675</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1914596565966966</v>
+        <v>0.1934075121750512</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2291279517400495</v>
+        <v>0.2309625740292362</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>838</v>
@@ -5133,19 +5133,19 @@
         <v>895896</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>845850</v>
+        <v>843763</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>950886</v>
+        <v>948916</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2214067485686493</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2090386990656875</v>
+        <v>0.2085227942356061</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2349966757992985</v>
+        <v>0.2345097635844588</v>
       </c>
     </row>
     <row r="11">
@@ -5162,19 +5162,19 @@
         <v>640047</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>599607</v>
+        <v>598252</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>684123</v>
+        <v>685399</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.3094757161078597</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.2899222799854816</v>
+        <v>0.2892671502842863</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.3307876386722525</v>
+        <v>0.3314043684091912</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>600</v>
@@ -5183,19 +5183,19 @@
         <v>626379</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>584303</v>
+        <v>583105</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>669685</v>
+        <v>669160</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.316637939039275</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.2953682669474922</v>
+        <v>0.2947627303091954</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.3385296598130078</v>
+        <v>0.3382640068672044</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1203</v>
@@ -5204,19 +5204,19 @@
         <v>1266425</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1210966</v>
+        <v>1209851</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1323926</v>
+        <v>1330595</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.3129772225749448</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.2992713627181057</v>
+        <v>0.2989957415009412</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.327187653660396</v>
+        <v>0.3288358564398324</v>
       </c>
     </row>
     <row r="12">
@@ -5233,19 +5233,19 @@
         <v>530672</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>488514</v>
+        <v>495939</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>570438</v>
+        <v>573446</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2565907392255252</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2362068016229649</v>
+        <v>0.2397965354636488</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2758187202803074</v>
+        <v>0.2772730446551664</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>431</v>
@@ -5254,19 +5254,19 @@
         <v>437261</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>400860</v>
+        <v>397813</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>475569</v>
+        <v>474705</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.221037950054809</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2026368604667284</v>
+        <v>0.2010968584840145</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2404028489283663</v>
+        <v>0.2399661940533142</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>938</v>
@@ -5275,19 +5275,19 @@
         <v>967933</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>915735</v>
+        <v>914614</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1021723</v>
+        <v>1026661</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2392094984576428</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2263096467089907</v>
+        <v>0.2260326874227004</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2525029221588816</v>
+        <v>0.2537231899812634</v>
       </c>
     </row>
     <row r="13">
@@ -5304,19 +5304,19 @@
         <v>130805</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>110275</v>
+        <v>109795</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>157036</v>
+        <v>156949</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.0632469487188759</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.05332001134520308</v>
+        <v>0.0530883069902484</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.07593011060017338</v>
+        <v>0.07588796825280476</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>138</v>
@@ -5325,19 +5325,19 @@
         <v>144478</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>124257</v>
+        <v>123085</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>170250</v>
+        <v>168093</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.07303459821100532</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.06281264691852985</v>
+        <v>0.06222014232399943</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.08606250868852176</v>
+        <v>0.0849719079072547</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>260</v>
@@ -5346,19 +5346,19 @@
         <v>275283</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>243377</v>
+        <v>244994</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>309816</v>
+        <v>310326</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.06803198798984446</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.06014693215452142</v>
+        <v>0.06054651189849249</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.07656610515647534</v>
+        <v>0.07669221958586404</v>
       </c>
     </row>
     <row r="14">
@@ -5375,19 +5375,19 @@
         <v>289016</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>257432</v>
+        <v>258566</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>321018</v>
+        <v>323470</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1397451632512799</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1244735733561151</v>
+        <v>0.12502196563337</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.1552190489603178</v>
+        <v>0.1564043589681607</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>332</v>
@@ -5396,19 +5396,19 @@
         <v>351828</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>316658</v>
+        <v>316998</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>390740</v>
+        <v>386769</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1778509808058432</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1600724571780835</v>
+        <v>0.1602444112131315</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.1975213628742339</v>
+        <v>0.1955140725451088</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>604</v>
@@ -5417,19 +5417,19 @@
         <v>640844</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>597368</v>
+        <v>596282</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>695417</v>
+        <v>692638</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.1583745424089186</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1476300959073096</v>
+        <v>0.1473616953837024</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.1718614233987218</v>
+        <v>0.1711747749749468</v>
       </c>
     </row>
     <row r="15">
@@ -5521,19 +5521,19 @@
         <v>128520</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>107976</v>
+        <v>108915</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>150936</v>
+        <v>151665</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2367383029433769</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.1988954294527455</v>
+        <v>0.2006258853577466</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2780300865496128</v>
+        <v>0.279373969095718</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>113</v>
@@ -5542,19 +5542,19 @@
         <v>122964</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>105700</v>
+        <v>104170</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>147111</v>
+        <v>145156</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2239217063252174</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.1924829043628427</v>
+        <v>0.1896960817771967</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.267893933613959</v>
+        <v>0.2643331870820014</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>226</v>
@@ -5563,19 +5563,19 @@
         <v>251484</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>223975</v>
+        <v>222915</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>281380</v>
+        <v>282113</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2302932419291546</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2051019528727953</v>
+        <v>0.2041312521562137</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.2576702059467292</v>
+        <v>0.2583417733455907</v>
       </c>
     </row>
     <row r="17">
@@ -5592,19 +5592,19 @@
         <v>201897</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>179296</v>
+        <v>180236</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>225344</v>
+        <v>225517</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.3719031322407603</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.3302702283032913</v>
+        <v>0.3320015453174914</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.4150925063572933</v>
+        <v>0.4154108129943044</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>145</v>
@@ -5613,19 +5613,19 @@
         <v>147388</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>128238</v>
+        <v>126496</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>168434</v>
+        <v>167686</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2683986730859192</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2335247544421768</v>
+        <v>0.2303533637462255</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.3067230177893153</v>
+        <v>0.3053614454758284</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>332</v>
@@ -5634,19 +5634,19 @@
         <v>349286</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>319632</v>
+        <v>320593</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>384182</v>
+        <v>382136</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.3198540138693635</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2926989252101123</v>
+        <v>0.2935788768445386</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.3518098974860688</v>
+        <v>0.3499366588862526</v>
       </c>
     </row>
     <row r="18">
@@ -5663,19 +5663,19 @@
         <v>117823</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>98651</v>
+        <v>99737</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>139333</v>
+        <v>139884</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2170349379564387</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1817194238172737</v>
+        <v>0.1837195831354327</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2566573950600605</v>
+        <v>0.2576713841866823</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>126</v>
@@ -5684,19 +5684,19 @@
         <v>126548</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>107786</v>
+        <v>106935</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>145280</v>
+        <v>145688</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2304484582874772</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1962816895269731</v>
+        <v>0.194732391395248</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2645596959592609</v>
+        <v>0.2653012240706087</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>235</v>
@@ -5705,7 +5705,7 @@
         <v>244372</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>218312</v>
+        <v>219511</v>
       </c>
       <c r="T18" s="5" t="n">
         <v>274818</v>
@@ -5714,10 +5714,10 @@
         <v>0.2237801730234895</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1999168981631936</v>
+        <v>0.2010147817398577</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2516614053151761</v>
+        <v>0.2516610333372837</v>
       </c>
     </row>
     <row r="19">
@@ -5734,19 +5734,19 @@
         <v>32411</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>22165</v>
+        <v>23077</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>45180</v>
+        <v>44594</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.05970155731674225</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.04082920767898591</v>
+        <v>0.04250843860437178</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.08322353346520556</v>
+        <v>0.08214454427795234</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>39</v>
@@ -5755,19 +5755,19 @@
         <v>41610</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>30714</v>
+        <v>29558</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>55110</v>
+        <v>56142</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.07577356627431432</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.05593194387620102</v>
+        <v>0.05382628741931816</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.1003563969582019</v>
+        <v>0.1022359929561511</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>71</v>
@@ -5776,19 +5776,19 @@
         <v>74021</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>58388</v>
+        <v>59428</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>92963</v>
+        <v>92813</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.06778366221859365</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.05346792663573208</v>
+        <v>0.0544208303531243</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.08512979757852997</v>
+        <v>0.08499229577785365</v>
       </c>
     </row>
     <row r="20">
@@ -5805,19 +5805,19 @@
         <v>62226</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>47983</v>
+        <v>46812</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>79772</v>
+        <v>76888</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.1146220695426818</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.08838629379334395</v>
+        <v>0.08623045944107671</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.1469433110511139</v>
+        <v>0.1416310240811937</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>103</v>
@@ -5826,19 +5826,19 @@
         <v>110628</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>93288</v>
+        <v>92672</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>130184</v>
+        <v>130340</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.2014575960270719</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.1698801074217561</v>
+        <v>0.1687587222190929</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.2370680801645036</v>
+        <v>0.2373525264914816</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>159</v>
@@ -5847,19 +5847,19 @@
         <v>172854</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>148931</v>
+        <v>147742</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>198974</v>
+        <v>202539</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.1582889089593987</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.1363813792977151</v>
+        <v>0.1352929744367271</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.1822078346150539</v>
+        <v>0.185472108296942</v>
       </c>
     </row>
     <row r="21">
@@ -5951,19 +5951,19 @@
         <v>824376</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>776502</v>
+        <v>777588</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>878521</v>
+        <v>873858</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2451058260925218</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.2308717476073832</v>
+        <v>0.2311946225672573</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.261204306289304</v>
+        <v>0.259817870714558</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>771</v>
@@ -5972,19 +5972,19 @@
         <v>834138</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>781365</v>
+        <v>782612</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>883253</v>
+        <v>892055</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.2369977435852545</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.2220034753554539</v>
+        <v>0.2223578715405828</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.2509522939003558</v>
+        <v>0.2534531511134679</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>1546</v>
@@ -5993,19 +5993,19 @@
         <v>1658514</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1585736</v>
+        <v>1579520</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>1731992</v>
+        <v>1728873</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.2409597497576243</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.2303860831361024</v>
+        <v>0.2294829189366147</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.2516351219296263</v>
+        <v>0.2511819709490152</v>
       </c>
     </row>
     <row r="23">
@@ -6022,19 +6022,19 @@
         <v>1090977</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>1031305</v>
+        <v>1036640</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>1141133</v>
+        <v>1145742</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.3243724904337571</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.3066304859463259</v>
+        <v>0.3082167834307635</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.3392848383964682</v>
+        <v>0.3406553053646584</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>1002</v>
@@ -6043,19 +6043,19 @@
         <v>1058047</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>1007270</v>
+        <v>1005238</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>1113093</v>
+        <v>1114432</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3006152533015891</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2861883283543685</v>
+        <v>0.2856110194015332</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.316255130559873</v>
+        <v>0.3166356578039494</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>2044</v>
@@ -6064,19 +6064,19 @@
         <v>2149024</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>2067986</v>
+        <v>2069945</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>2226578</v>
+        <v>2229366</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3122242027753688</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3004504340477646</v>
+        <v>0.3007350672792765</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.3234917506944713</v>
+        <v>0.3238967482075246</v>
       </c>
     </row>
     <row r="24">
@@ -6093,19 +6093,19 @@
         <v>769846</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>720671</v>
+        <v>723355</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>824675</v>
+        <v>819325</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2288927242197447</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2142718998431164</v>
+        <v>0.2150700448139592</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2451946382861296</v>
+        <v>0.24360392878261</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>687</v>
@@ -6114,19 +6114,19 @@
         <v>700858</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>656022</v>
+        <v>654120</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>753961</v>
+        <v>749180</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.1991298121112927</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1863906820952626</v>
+        <v>0.1858502956224758</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2142174415386439</v>
+        <v>0.2128591786287475</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>1423</v>
@@ -6135,19 +6135,19 @@
         <v>1470704</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>1402156</v>
+        <v>1403326</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>1543851</v>
+        <v>1550515</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2136734284812167</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2037142933083917</v>
+        <v>0.2038843378758669</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2243007452871341</v>
+        <v>0.2252688537398204</v>
       </c>
     </row>
     <row r="25">
@@ -6164,19 +6164,19 @@
         <v>189007</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>163934</v>
+        <v>164385</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>216220</v>
+        <v>217501</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.0561961824522857</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.04874124169071265</v>
+        <v>0.0488753314702106</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.06428707874859663</v>
+        <v>0.06466816898536849</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>212</v>
@@ -6185,19 +6185,19 @@
         <v>225106</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>199742</v>
+        <v>195293</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>258739</v>
+        <v>255050</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.06395771977261468</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.05675129986054873</v>
+        <v>0.05548713758557596</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.07351368702326141</v>
+        <v>0.07246538711116587</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>392</v>
@@ -6206,19 +6206,19 @@
         <v>414113</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>374556</v>
+        <v>378311</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>456622</v>
+        <v>457186</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.06016505254917933</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.05441796733838426</v>
+        <v>0.05496341667146867</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.06634094850586122</v>
+        <v>0.06642296315229326</v>
       </c>
     </row>
     <row r="26">
@@ -6235,19 +6235,19 @@
         <v>489141</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>448532</v>
+        <v>447370</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>532429</v>
+        <v>531199</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.1454327768016907</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1333589692638171</v>
+        <v>0.1330134021818275</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.1583032373890584</v>
+        <v>0.1579375026553298</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>643</v>
@@ -6256,19 +6256,19 @@
         <v>701455</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>653886</v>
+        <v>655256</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>745462</v>
+        <v>751137</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.1992994712292491</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.1857839404699927</v>
+        <v>0.186173128028278</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.2118026995205173</v>
+        <v>0.2134151497279725</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>1111</v>
@@ -6277,19 +6277,19 @@
         <v>1190596</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>1133310</v>
+        <v>1123513</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>1261561</v>
+        <v>1258944</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.1729775664366109</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.164654605056285</v>
+        <v>0.163231206869346</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.1832878106283911</v>
+        <v>0.1829075099366592</v>
       </c>
     </row>
     <row r="27">
